--- a/Propane 34KW/Propane 34KW_AVE_MASS_FRAC.xlsx
+++ b/Propane 34KW/Propane 34KW_AVE_MASS_FRAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Propane 34KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Propane 34KW_Pool_Fire_GCMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FCB21E26-7CA2-449A-B0A0-2E0B4D7EA03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55308E40-EAF7-42E6-9DC5-F3D84BD8C296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-9675" windowWidth="16200" windowHeight="10995" xr2:uid="{0C1A2FD1-8D6F-4620-B1CC-986AD1D2E462}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{8275416A-EFAD-475B-941B-669CC0BDD722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38546B2-0B6A-489C-9ECF-A806E2C6FFE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C69EC4-C532-4881-A6C4-D8A7531BF54C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8519F24F-9F7A-46DB-A297-C95E4078BA6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC9ACA5-5870-4D5D-9B4E-0B8093CD55BF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CAF6C5-9840-48A3-B64B-F8090A6B6031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F51D1A-B44A-4A2B-B7C9-8109086CC830}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B9D476-470A-4195-A9EB-CE7CC150F8A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF4D059-F311-4A78-A140-7670F4DBC890}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -610,55 +610,55 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6.012002783622928E-2</v>
+        <v>6.0241401121151353E-2</v>
       </c>
       <c r="C2">
-        <v>2.0140383702780076E-3</v>
+        <v>2.0181044105271159E-3</v>
       </c>
       <c r="D2">
-        <v>4.1614818516341717E-2</v>
+        <v>4.1698832569670538E-2</v>
       </c>
       <c r="E2">
-        <v>7.7938727905616408E-3</v>
+        <v>7.8096074463311375E-3</v>
       </c>
       <c r="F2">
-        <v>4.7600106996909383E-3</v>
+        <v>4.7696204446574225E-3</v>
       </c>
       <c r="G2">
-        <v>0.3403961251547814</v>
+        <v>0.34108333368364796</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.47939566541564904</v>
+        <v>0.48036349308943777</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.379903446367457E-3</v>
+        <v>5.3907646614625038E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.385375446621601E-2</v>
+        <v>3.392210009968278E-2</v>
       </c>
       <c r="N2">
-        <v>9.3134547945778415E-3</v>
+        <v>9.3322572576350817E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.4892451042976807E-3</v>
+        <v>9.0329871478367406E-4</v>
       </c>
       <c r="Q2">
-        <v>7.2622017867377691E-4</v>
+        <v>7.2768630787954658E-4</v>
       </c>
       <c r="R2">
-        <v>1.1715847660567982E-2</v>
+        <v>1.1739500193133051E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -666,55 +666,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7.5830006902213851E-2</v>
+        <v>7.5917638957614067E-2</v>
       </c>
       <c r="C3">
-        <v>2.3807770832383148E-3</v>
+        <v>2.3835284002667149E-3</v>
       </c>
       <c r="D3">
-        <v>5.5683429249636755E-2</v>
+        <v>5.5747779149580304E-2</v>
       </c>
       <c r="E3">
-        <v>9.7208327154739427E-3</v>
+        <v>9.7320664814441581E-3</v>
       </c>
       <c r="F3">
-        <v>3.6839911271506027E-3</v>
+        <v>3.6882484881576127E-3</v>
       </c>
       <c r="G3">
-        <v>0.18282150161550992</v>
+        <v>0.1830327771331102</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.58962303189682297</v>
+        <v>0.59030442281721396</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.1905851205159065E-3</v>
+        <v>7.1988948356192456E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.2095989058770544E-2</v>
+        <v>4.2144636793302291E-2</v>
       </c>
       <c r="N3">
-        <v>1.1944681209175878E-2</v>
+        <v>1.195848493949612E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.4867634852934713E-3</v>
+        <v>1.8796440494006593E-3</v>
       </c>
       <c r="Q3">
-        <v>8.2938766575252603E-4</v>
+        <v>8.3034613785140437E-4</v>
       </c>
       <c r="R3">
-        <v>1.516400770982523E-2</v>
+        <v>1.5181531816943266E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,55 +722,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.7287353539452028E-2</v>
+        <v>7.7469642794443058E-2</v>
       </c>
       <c r="C4">
-        <v>2.599787042243082E-3</v>
+        <v>2.605918876513015E-3</v>
       </c>
       <c r="D4">
-        <v>5.6042327148654425E-2</v>
+        <v>5.6174508076012424E-2</v>
       </c>
       <c r="E4">
-        <v>1.0001631140724282E-2</v>
+        <v>1.0025220897726481E-2</v>
       </c>
       <c r="F4">
-        <v>1.1828780535069541E-3</v>
+        <v>1.185667979015381E-3</v>
       </c>
       <c r="G4">
-        <v>0.15399492156053451</v>
+        <v>0.15435813259362199</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.61064280981862118</v>
+        <v>0.61208306644237243</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.3630826150444641E-3</v>
+        <v>8.3828077062723279E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.5629763845679169E-2</v>
+        <v>4.5737385795143325E-2</v>
       </c>
       <c r="N4">
-        <v>1.2821414004097935E-2</v>
+        <v>1.2851654475529592E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.440625029384102E-3</v>
+        <v>1.6390611755542463E-3</v>
       </c>
       <c r="Q4">
-        <v>8.3556735206086793E-4</v>
+        <v>8.3753811368132301E-4</v>
       </c>
       <c r="R4">
-        <v>1.6610218362893843E-2</v>
+        <v>1.6649395074114316E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -778,55 +778,55 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>8.6358703372152693E-2</v>
+        <v>8.6494438410351274E-2</v>
       </c>
       <c r="C5">
-        <v>2.1615328870091865E-3</v>
+        <v>2.1649302950008417E-3</v>
       </c>
       <c r="D5">
-        <v>6.7971347819890712E-2</v>
+        <v>6.8078182373125976E-2</v>
       </c>
       <c r="E5">
-        <v>1.1279475119179724E-2</v>
+        <v>1.1297203731657438E-2</v>
       </c>
       <c r="F5">
-        <v>1.3766904279076297E-2</v>
+        <v>1.3788542529828364E-2</v>
       </c>
       <c r="G5">
-        <v>4.4687502737080324E-2</v>
+        <v>4.4757740705624986E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6971290916147147</v>
+        <v>0.69822481028793071</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.9916142973942145E-3</v>
+        <v>7.0026034275764695E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.2420004211737986E-2</v>
+        <v>4.2486678219883361E-2</v>
       </c>
       <c r="N5">
-        <v>1.0039033525803452E-2</v>
+        <v>1.0054812463488855E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.9525042543436847E-3</v>
+        <v>1.8987736471353914E-3</v>
       </c>
       <c r="Q5">
-        <v>5.7178490998206202E-4</v>
+        <v>5.7268361785477509E-4</v>
       </c>
       <c r="R5">
-        <v>1.3157919217322109E-2</v>
+        <v>1.3178600290541563E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,55 +834,55 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>8.2008891996775454E-2</v>
+        <v>8.2135049379987668E-2</v>
       </c>
       <c r="C6">
-        <v>1.1530237224604189E-3</v>
+        <v>1.1547974625033014E-3</v>
       </c>
       <c r="D6">
-        <v>5.6103340393056242E-2</v>
+        <v>5.6189646285516391E-2</v>
       </c>
       <c r="E6">
-        <v>1.2011379113481871E-2</v>
+        <v>1.2029856672693219E-2</v>
       </c>
       <c r="F6">
-        <v>5.0086590559797965E-2</v>
+        <v>5.0163640658210121E-2</v>
       </c>
       <c r="G6">
-        <v>1.2264890371070961E-2</v>
+        <v>1.228375791624714E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.74032314577779257</v>
+        <v>0.74146201289974245</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.6002553428624924E-3</v>
+        <v>3.6057937519531741E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.7779100602660887E-2</v>
+        <v>2.7821834244765874E-2</v>
       </c>
       <c r="N6">
-        <v>5.6718951872866278E-3</v>
+        <v>5.6806204783771356E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.0614590563261461E-3</v>
+        <v>1.0033242519475293E-3</v>
       </c>
       <c r="Q6">
-        <v>2.5240353802216225E-4</v>
+        <v>2.5279181994007497E-4</v>
       </c>
       <c r="R6">
-        <v>6.2073252147441483E-3</v>
+        <v>6.216874178115948E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -890,55 +890,55 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>6.3775958424244439E-2</v>
+        <v>6.3870017185470931E-2</v>
       </c>
       <c r="C7">
-        <v>4.7383147975046686E-4</v>
+        <v>4.7453030111068762E-4</v>
       </c>
       <c r="D7">
-        <v>4.1726888951044053E-2</v>
+        <v>4.178842906085254E-2</v>
       </c>
       <c r="E7">
-        <v>1.2097728240980493E-2</v>
+        <v>1.2115570345750329E-2</v>
       </c>
       <c r="F7">
-        <v>0.10445558591149806</v>
+        <v>0.10460964024884929</v>
       </c>
       <c r="G7">
-        <v>1.9240921315417097E-3</v>
+        <v>1.9269298422849082E-3</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.75602487442938859</v>
+        <v>0.75713988335911953</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.2279340803265431E-3</v>
+        <v>1.2297450755874074E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.2224116032944845E-2</v>
+        <v>1.2242144538349624E-2</v>
       </c>
       <c r="N7">
-        <v>2.1654511212306259E-3</v>
+        <v>2.1686447956965511E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>3.6258273462047965E-4</v>
+        <v>3.0767051280710604E-4</v>
       </c>
       <c r="Q7">
-        <v>7.4377526564469392E-5</v>
+        <v>7.4487220847152096E-5</v>
       </c>
       <c r="R7">
-        <v>2.0492851639640321E-3</v>
+        <v>2.052307513273783E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,55 +946,55 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>3.5687503433439564E-2</v>
+        <v>3.5687261710162239E-2</v>
       </c>
       <c r="C8">
-        <v>7.7611001467846474E-5</v>
+        <v>7.7610475782835477E-5</v>
       </c>
       <c r="D8">
-        <v>2.2368283891246118E-2</v>
+        <v>2.2368132383452904E-2</v>
       </c>
       <c r="E8">
-        <v>1.1993420652107492E-2</v>
+        <v>1.199333941669826E-2</v>
       </c>
       <c r="F8">
-        <v>0.16487028419170355</v>
+        <v>0.1648691674706772</v>
       </c>
       <c r="G8">
-        <v>1.5859441840862173E-4</v>
+        <v>1.5859334419611305E-4</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.76172032980317605</v>
+        <v>0.76171517041916603</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.5911553181892818E-4</v>
+        <v>1.5911445407674622E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.4002240552802394E-3</v>
+        <v>2.4002077977679655E-3</v>
       </c>
       <c r="N8">
-        <v>2.8652519736130941E-4</v>
+        <v>2.8652325663127543E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>2.9109210088033618E-5</v>
+        <v>3.588234403631397E-5</v>
       </c>
       <c r="Q8">
-        <v>1.0809419194464042E-5</v>
+        <v>1.0809345978688718E-5</v>
       </c>
       <c r="R8">
-        <v>2.3818919470776787E-4</v>
+        <v>2.3818758137348454E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,19 +1002,19 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>2.2808664985548288E-2</v>
+        <v>2.280866498554834E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.3433841650508285E-2</v>
+        <v>1.3433841650508307E-2</v>
       </c>
       <c r="E9">
-        <v>1.1986273419123297E-2</v>
+        <v>1.1986273419123335E-2</v>
       </c>
       <c r="F9">
-        <v>0.18636475520083709</v>
+        <v>0.18636475520083648</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.76495493527279246</v>
+        <v>0.7649549352727929</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.5152947119059153E-4</v>
+        <v>4.5152947119059191E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>1.7052663603836959E-2</v>
+        <v>1.7052663603837E-2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.7180466690747263E-3</v>
+        <v>8.7180466690747454E-3</v>
       </c>
       <c r="E10">
-        <v>1.199385153939323E-2</v>
+        <v>1.1993851539393271E-2</v>
       </c>
       <c r="F10">
-        <v>0.20061629188643479</v>
+        <v>0.20061629188643418</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7615318659153768</v>
+        <v>0.76153186591537747</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.7280385883318684E-5</v>
+        <v>8.7280385883318793E-5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1115,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDBE254-922C-435C-9BA3-B9E2FD208C5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7612E0B3-5983-4B57-AA4C-FB2066930857}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1202,55 +1202,55 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.4233159153599242E-3</v>
+        <v>1.4263994026119001E-3</v>
       </c>
       <c r="C2">
-        <v>9.5723333283956333E-5</v>
+        <v>9.5920089211061528E-5</v>
       </c>
       <c r="D2">
-        <v>7.8922653513739185E-3</v>
+        <v>7.9082167963527399E-3</v>
       </c>
       <c r="E2">
-        <v>5.5127279537722242E-4</v>
+        <v>5.5239484609023704E-4</v>
       </c>
       <c r="F2">
-        <v>9.9693626863083911E-5</v>
+        <v>9.9913689789494313E-5</v>
       </c>
       <c r="G2">
-        <v>1.2166043761541904E-2</v>
+        <v>1.2191392898407E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.7509753531395743E-3</v>
+        <v>8.7708141928488064E-3</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.24571729391665E-4</v>
+        <v>2.2503576580118145E-4</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7.8782659260516951E-4</v>
+        <v>7.8953741078253948E-4</v>
       </c>
       <c r="N2">
-        <v>4.2711221445392689E-4</v>
+        <v>4.2799128705354702E-4</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.7831279834726573E-4</v>
+        <v>5.4561764885353753E-5</v>
       </c>
       <c r="Q2">
-        <v>2.5693526775108383E-5</v>
+        <v>2.5747095865128233E-5</v>
       </c>
       <c r="R2">
-        <v>6.3629680731101205E-4</v>
+        <v>6.3759923707761338E-4</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1258,55 +1258,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.7578244238545149E-3</v>
+        <v>1.7592604029607144E-3</v>
       </c>
       <c r="C3">
-        <v>1.1257313221326187E-4</v>
+        <v>1.1269406232796636E-4</v>
       </c>
       <c r="D3">
-        <v>1.0556987609561509E-2</v>
+        <v>1.0569134216145151E-2</v>
       </c>
       <c r="E3">
-        <v>6.8597904484890549E-4</v>
+        <v>6.8674671844885825E-4</v>
       </c>
       <c r="F3">
-        <v>7.509648906132044E-5</v>
+        <v>7.5150375920643501E-5</v>
       </c>
       <c r="G3">
-        <v>6.4747897534341396E-3</v>
+        <v>6.4813327375192117E-3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.0382959687753032E-2</v>
+        <v>1.0388863185274294E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.9815641870765513E-4</v>
+        <v>2.9846941815286926E-4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.5849544069510613E-4</v>
+        <v>9.5926658908868068E-4</v>
       </c>
       <c r="N3">
-        <v>5.4476006627276335E-4</v>
+        <v>5.4534194532105708E-4</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.7787205697662758E-4</v>
+        <v>1.1316717951296598E-4</v>
       </c>
       <c r="Q3">
-        <v>2.9071302289697665E-5</v>
+        <v>2.9100591610080789E-5</v>
       </c>
       <c r="R3">
-        <v>8.2033491973887689E-4</v>
+        <v>8.2123191479309085E-4</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,55 +1314,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.7824702303940515E-3</v>
+        <v>1.7867260722803698E-3</v>
       </c>
       <c r="C4">
-        <v>1.2277845397369702E-4</v>
+        <v>1.2306888780315819E-4</v>
       </c>
       <c r="D4">
-        <v>1.0624222782082176E-2</v>
+        <v>1.0649285540964006E-2</v>
       </c>
       <c r="E4">
-        <v>7.0540687515579007E-4</v>
+        <v>7.0707283023080207E-4</v>
       </c>
       <c r="F4">
-        <v>2.3953284982693313E-5</v>
+        <v>2.4010682571955329E-5</v>
       </c>
       <c r="G4">
-        <v>5.4419712591861459E-3</v>
+        <v>5.4548739032226588E-3</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.0657894726941999E-2</v>
+        <v>1.0683572340605314E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.4622206218494202E-4</v>
+        <v>3.4704177642582828E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.0334643951464587E-3</v>
+        <v>1.035933010301283E-3</v>
       </c>
       <c r="N4">
-        <v>5.8397616076422403E-4</v>
+        <v>5.8535786653424963E-4</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.9193350610821835E-4</v>
+        <v>9.8613402841439839E-5</v>
       </c>
       <c r="Q4">
-        <v>2.9222674081422258E-5</v>
+        <v>2.9291967174843247E-5</v>
       </c>
       <c r="R4">
-        <v>8.9773159524187904E-4</v>
+        <v>8.9985372044259983E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,55 +1370,55 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>2.0711251658218745E-3</v>
+        <v>2.0742256822411454E-3</v>
       </c>
       <c r="C5">
-        <v>1.0306696989784879E-4</v>
+        <v>1.0322701763868158E-4</v>
       </c>
       <c r="D5">
-        <v>1.2893422898738528E-2</v>
+        <v>1.2913672844364562E-2</v>
       </c>
       <c r="E5">
-        <v>7.9898535275574475E-4</v>
+        <v>8.0023431996513515E-4</v>
       </c>
       <c r="F5">
-        <v>2.9312227800596004E-4</v>
+        <v>2.935552001370677E-4</v>
       </c>
       <c r="G5">
-        <v>1.6063264431764182E-3</v>
+        <v>1.6087977598021701E-3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.3003006797190545E-2</v>
+        <v>1.3021837676873047E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.9307657876879751E-4</v>
+        <v>2.9353005461743722E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.0004751722445234E-3</v>
+        <v>1.0019703599283168E-3</v>
       </c>
       <c r="N5">
-        <v>4.619921420508948E-4</v>
+        <v>4.6270890481604223E-4</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.3390026851490166E-4</v>
+        <v>1.1491795831060418E-4</v>
       </c>
       <c r="Q5">
-        <v>2.0347998314017492E-5</v>
+        <v>2.0379289773207812E-5</v>
       </c>
       <c r="R5">
-        <v>7.163941376957969E-4</v>
+        <v>7.175097478617689E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,55 +1426,55 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1.8831377117873112E-3</v>
+        <v>1.8856837107043035E-3</v>
       </c>
       <c r="C6">
-        <v>5.4396723656596627E-5</v>
+        <v>5.4478003040196115E-5</v>
       </c>
       <c r="D6">
-        <v>1.0635106307194366E-2</v>
+        <v>1.0651437617273024E-2</v>
       </c>
       <c r="E6">
-        <v>8.4675960523748056E-4</v>
+        <v>8.4804546830889022E-4</v>
       </c>
       <c r="F6">
-        <v>1.0085288436741478E-3</v>
+        <v>1.009835894473194E-3</v>
       </c>
       <c r="G6">
-        <v>4.3262278378912162E-4</v>
+        <v>4.3325414188981961E-4</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.2823007359727223E-2</v>
+        <v>1.2838533656261652E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.4884560533839873E-4</v>
+        <v>1.4906602457599177E-4</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6.2632915109324622E-4</v>
+        <v>6.2717160195862307E-4</v>
       </c>
       <c r="N6">
-        <v>2.5804989119107335E-4</v>
+        <v>2.584346109713076E-4</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.2694513455465794E-4</v>
+        <v>6.032417210416626E-5</v>
       </c>
       <c r="Q6">
-        <v>8.8107502170272293E-6</v>
+        <v>8.8235937284077454E-6</v>
       </c>
       <c r="R6">
-        <v>3.3522179772467676E-4</v>
+        <v>3.3572618958164227E-4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,55 +1482,55 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>1.397500211982214E-3</v>
+        <v>1.3991057690799092E-3</v>
       </c>
       <c r="C7">
-        <v>2.211628512177774E-5</v>
+        <v>2.2147314265068799E-5</v>
       </c>
       <c r="D7">
-        <v>7.9046784779339321E-3</v>
+        <v>7.9163020743358396E-3</v>
       </c>
       <c r="E7">
-        <v>8.4879446777928378E-4</v>
+        <v>8.5001931343037999E-4</v>
       </c>
       <c r="F7">
-        <v>1.9773021906517611E-3</v>
+        <v>1.9793546845396806E-3</v>
       </c>
       <c r="G7">
-        <v>6.6571545755634881E-5</v>
+        <v>6.6661024602164779E-5</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.2022791969919707E-2</v>
+        <v>1.2033081802451003E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.0061961033429303E-5</v>
+        <v>5.0131080537778234E-5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.625312452895372E-4</v>
+        <v>2.6282935009336404E-4</v>
       </c>
       <c r="N7">
-        <v>9.7392127853014747E-5</v>
+        <v>9.7528230118732926E-5</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>4.3291578686670437E-5</v>
+        <v>1.8377225914902441E-5</v>
       </c>
       <c r="Q7">
-        <v>2.5456346051057388E-6</v>
+        <v>2.54904889851631E-6</v>
       </c>
       <c r="R7">
-        <v>1.0977245204358859E-4</v>
+        <v>1.099283610222399E-4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1538,55 +1538,55 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>7.4747891411911394E-4</v>
+        <v>7.4747276561479812E-4</v>
       </c>
       <c r="C8">
-        <v>3.5878860769619498E-6</v>
+        <v>3.5878607053831753E-6</v>
       </c>
       <c r="D8">
-        <v>4.2349649218225817E-3</v>
+        <v>4.2349361617290051E-3</v>
       </c>
       <c r="E8">
-        <v>8.3792446838058593E-4</v>
+        <v>8.3791868346767568E-4</v>
       </c>
       <c r="F8">
-        <v>2.9347992433447056E-3</v>
+        <v>2.9347734638393761E-3</v>
       </c>
       <c r="G8">
-        <v>5.3913245020230703E-6</v>
+        <v>5.3912850123822022E-6</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.1075834895158893E-2</v>
+        <v>1.1075726498095616E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>6.4055930749201355E-6</v>
+        <v>6.4055471694903027E-6</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.9176708366133198E-5</v>
+        <v>4.9176300635696308E-5</v>
       </c>
       <c r="N8">
-        <v>1.2753829580346044E-5</v>
+        <v>1.2753739093205731E-5</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>3.4705170443513023E-6</v>
+        <v>2.1308625202674631E-6</v>
       </c>
       <c r="Q8">
-        <v>3.6335457118499109E-7</v>
+        <v>3.633519051824571E-7</v>
       </c>
       <c r="R8">
-        <v>1.2666365715474967E-5</v>
+        <v>1.2666277068201832E-5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>4.725674177854459E-4</v>
+        <v>4.7256741778544656E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.5430812706213534E-3</v>
+        <v>2.5430812706213612E-3</v>
       </c>
       <c r="E9">
-        <v>8.3661576542556708E-4</v>
+        <v>8.3661576542556698E-4</v>
       </c>
       <c r="F9">
-        <v>3.2676750454859686E-3</v>
+        <v>3.2676750454859707E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.0871974128723469E-2</v>
+        <v>1.0871974128723505E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9.146601003797109E-6</v>
+        <v>9.1466010037971259E-6</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1650,19 +1650,19 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>3.5199184018674305E-4</v>
+        <v>3.5199184018674354E-4</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.650288327751624E-3</v>
+        <v>1.6502883277516296E-3</v>
       </c>
       <c r="E10">
         <v>8.3686993037634624E-4</v>
       </c>
       <c r="F10">
-        <v>3.4992177098021929E-3</v>
+        <v>3.4992177098021964E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.0737317706861324E-2</v>
+        <v>1.0737317706861363E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.7611306902321208E-6</v>
+        <v>1.7611306902321248E-6</v>
       </c>
       <c r="N10">
         <v>0</v>
